--- a/InscritosPresentes/workshopPython2022/workshopPython2022 PlanilhaDeBeneficiario.xlsx
+++ b/InscritosPresentes/workshopPython2022/workshopPython2022 PlanilhaDeBeneficiario.xlsx
@@ -28,10 +28,10 @@
     <t>PARTICIPOU NO TEMA ?* (NOME TEMA TAL QUAL NO SISTEMA - SE HOUVER MAIS DE UM POR GENTIZLEZA SEPARE POR PONTO E VIRGULA)</t>
   </si>
   <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>CPF</t>
+    <t>NOME PARTICIPANTE</t>
+  </si>
+  <si>
+    <t>NUMERO CPF</t>
   </si>
   <si>
     <t>Ana Laura Gonçalves Barbosa</t>
@@ -172,10 +172,10 @@
     <t>13685056948</t>
   </si>
   <si>
-    <t>29172:29173</t>
-  </si>
-  <si>
-    <t>29172:</t>
+    <t>29172;29173</t>
+  </si>
+  <si>
+    <t>29172</t>
   </si>
   <si>
     <t>29173</t>

--- a/InscritosPresentes/workshopPython2022/workshopPython2022 PlanilhaDeBeneficiario.xlsx
+++ b/InscritosPresentes/workshopPython2022/workshopPython2022 PlanilhaDeBeneficiario.xlsx
@@ -172,13 +172,13 @@
     <t>13685056948</t>
   </si>
   <si>
-    <t>29172;29173</t>
-  </si>
-  <si>
-    <t>29172</t>
-  </si>
-  <si>
-    <t>29173</t>
+    <t>345;111</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -587,7 +587,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -621,7 +621,7 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -638,7 +638,7 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -655,7 +655,7 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -672,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -689,7 +689,7 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -706,7 +706,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -723,7 +723,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -740,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -757,7 +757,7 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -774,7 +774,7 @@
         <v>41</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -791,7 +791,7 @@
         <v>42</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -808,7 +808,7 @@
         <v>43</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -825,7 +825,7 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -842,7 +842,7 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -859,7 +859,7 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -876,7 +876,7 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -893,7 +893,7 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -910,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -927,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -944,7 +944,7 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>100</v>
